--- a/Documents/Data/Travel Holiday & Guide/Category_TravelHolidayGuide.xlsx
+++ b/Documents/Data/Travel Holiday & Guide/Category_TravelHolidayGuide.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parakoda\Documents\Visual Studio 2015\Projects\BooksLibraryManagement\Category\Category_TravelHolidayGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Travel Holiday &amp; Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Category</t>
   </si>
@@ -207,13 +207,25 @@
   </si>
   <si>
     <t>8.47 </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>$16.57 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,10 +250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,12 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,6 +298,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,361 +601,429 @@
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="66.28515625" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="66.28515625" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10">
+        <v>9780761169086</v>
+      </c>
+      <c r="H2" s="8">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="5">
         <v>42641</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="2">
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10">
+        <v>9781760340834</v>
+      </c>
+      <c r="H3" s="8">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="5">
         <v>42664</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="2">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10">
+        <v>9781408834862</v>
+      </c>
+      <c r="H4" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="2">
         <v>10.18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10">
+        <v>9781848094772</v>
+      </c>
+      <c r="H5" s="8">
+        <v>47.56</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="2">
         <v>47.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10">
+        <v>9781782390626</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8.41</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6">
+      <c r="J6" s="5">
         <v>42060</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10">
+        <v>9780241970065</v>
+      </c>
+      <c r="H7" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="2">
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10">
+        <v>9781786571205</v>
+      </c>
+      <c r="H8" s="8">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="5">
         <v>42661</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="2">
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10">
+        <v>9781743791714</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="5">
         <v>42682</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="2">
         <v>16.72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10">
+        <v>9781786571304</v>
+      </c>
+      <c r="H10" s="8">
+        <v>29.24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="6">
+      <c r="J10" s="5">
         <v>42661</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="2">
         <v>29.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10">
+        <v>9780330351690</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.74</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="6">
+      <c r="J11" s="5">
         <v>36231</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="2">
         <v>7.81</v>
       </c>
     </row>
